--- a/ENTER/FINAL__INSERTS/FINAL_attendance_data.xlsx
+++ b/ENTER/FINAL__INSERTS/FINAL_attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbresee\Documents\GIT2\HOCKEY_ANALYSIS\ENTER\FINAL__INSERTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD52066-ACEB-496E-9616-6CEE371FCAFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDB372A-95E4-4027-9C42-73D0FC4DF172}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5658D7C9-372B-43F7-AD09-8C3EF89C73F5}"/>
   </bookViews>
@@ -176,7 +176,7 @@
                 <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>FPHL 2019 Total Attendance by Team</a:t>
+              <a:t>FPHL 2019 Total Fan Attendance by Team</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1600">
               <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
@@ -281,7 +281,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1158,211 +1158,234 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED171FBD-08FE-4F85-A742-7A8E22B96C58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB243F8-A8F8-4A9E-8278-0B95C197069F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60F5024-505E-4E75-94B2-7600C211996C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5495925" y="2085974"/>
-          <a:ext cx="3162300" cy="790575"/>
+          <a:off x="774838" y="762001"/>
+          <a:ext cx="9873284" cy="6057900"/>
+          <a:chOff x="774838" y="762001"/>
+          <a:chExt cx="9873284" cy="6057900"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED171FBD-08FE-4F85-A742-7A8E22B96C58}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="774838" y="762001"/>
+          <a:ext cx="9873284" cy="6057900"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60F5024-505E-4E75-94B2-7600C211996C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4250220" y="2085974"/>
+            <a:ext cx="3278672" cy="713548"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Two of the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>top</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> three teams</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> by attendance are located in what would be considered 'non-hockey' markets (Columbus, GA and Winston-Salem, NC)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:cs typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5B2931-4CDC-440C-9CDF-C1558063C625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9153525" y="4476749"/>
-          <a:ext cx="2514600" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Two of the </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> three teams</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> by attendance are located in what would be considered 'non-hockey' markets (Columbus, GA and Winston-Salem, NC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5B2931-4CDC-440C-9CDF-C1558063C625}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7793935" y="4580283"/>
+            <a:ext cx="2719595" cy="655567"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="C00000"/>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
           </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The small city of Battle Creek, MI had the team with the significantly worst fan attendance of all teams</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>The small city of Battle Creek, MI had the team with the significantly worst seasons fan attendance (7,055) of all teams</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1984,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C57A88-A055-42B0-8110-591002025C11}">
   <dimension ref="B3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ENTER/FINAL__INSERTS/FINAL_attendance_data.xlsx
+++ b/ENTER/FINAL__INSERTS/FINAL_attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbresee\Documents\GIT2\HOCKEY_ANALYSIS\ENTER\FINAL__INSERTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDB372A-95E4-4027-9C42-73D0FC4DF172}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC31BD4-02FA-4FCB-A35C-F1BCC4E9050A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5658D7C9-372B-43F7-AD09-8C3EF89C73F5}"/>
   </bookViews>
@@ -94,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,10 +121,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1213,8 +1220,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4250220" y="2085974"/>
-            <a:ext cx="3278672" cy="713548"/>
+            <a:off x="4183959" y="2085974"/>
+            <a:ext cx="3452606" cy="713548"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1284,7 +1291,7 @@
                 <a:latin typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t> three teams</a:t>
+              <a:t> three hockey teams</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1050" baseline="0">
@@ -1325,7 +1332,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7793935" y="4580283"/>
+            <a:off x="7752523" y="4547153"/>
             <a:ext cx="2719595" cy="655567"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1380,12 +1387,143 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="WeblySleek UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>The small city of Battle Creek, MI had the team with the significantly worst seasons fan attendance (7,055) of all teams</a:t>
+              <a:t>The small city of Battle Creek, MI had the team with the significantly worst season fan attendance (7,055) of all teams.</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506FE447-E5F5-4B86-92BA-45F337C2F626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9226826" y="5201477"/>
+          <a:ext cx="646044" cy="1018761"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>140803</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>356151</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78D30D7-319A-421C-A638-7B5A40AABD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="753716" y="6833152"/>
+          <a:ext cx="4505739" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="WeblySleek UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Source:  https://www.federalhockey.com/stats#/182/attendance?season_id=1828</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2005,19 +2143,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C57A88-A055-42B0-8110-591002025C11}">
-  <dimension ref="B3:C3"/>
+  <dimension ref="A3:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="18" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
